--- a/TestCase/ami-api-mdm-service.xlsx
+++ b/TestCase/ami-api-mdm-service.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="145">
   <si>
     <t>Method</t>
   </si>
@@ -563,15 +563,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/mdm-service/collection/0.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>读取0节点23号以及15天内的采集成功率数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>freezeDate;15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/mdm-service/collection/0.json?freezeDate=23%2F10%2F2020&amp;dataType=DAILY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/mdm-service/collection/data/region/0.json?dataType=DAILY&amp;freezeDate=23%2F10%2F2020&amp;intervalType=INTERVAL_H3&amp;regionId=0&amp;pageNo=1&amp;pageSize=20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取0节点23号3小时内采集成功数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Учкурганское ЭСП</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取0节点23号日结3小时采集成功数量1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取0节点23号日结3小时采集成功数量2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regionId;20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1123,7 +1147,7 @@
     <cellStyle name="已访问的超链接" xfId="127" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="128" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="12">
     <dxf>
       <font>
         <color auto="1"/>
@@ -1178,26 +1202,6 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -12316,11 +12320,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
@@ -12466,13 +12470,13 @@
         <v>135</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H3" s="18" t="s">
         <v>53</v>
@@ -12481,41 +12485,111 @@
         <v>200</v>
       </c>
       <c r="M3" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N3" s="18" t="s">
         <v>133</v>
       </c>
       <c r="O3" s="21"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="18">
+        <v>200</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="18">
+        <v>200</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>133</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="O1">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"测试不通过"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"测试通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O3">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"测试通过"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"测试不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576">
@@ -12605,15 +12679,15 @@
       </c>
       <c r="B4" s="8">
         <f>COUNT('Archive Service Test Case'!A2:A454)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" s="8">
         <f>COUNTIF('Archive Service Test Case'!B2:B122,"*"&amp;"Yes"&amp;"*")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" s="9">
         <f>C4-E4</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" s="9">
         <f>COUNTIF('Archive Service Test Case'!O2:O34,FALSE)</f>

--- a/TestCase/ami-api-mdm-service.xlsx
+++ b/TestCase/ami-api-mdm-service.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="143">
   <si>
     <t>Method</t>
   </si>
@@ -580,14 +580,6 @@
   </si>
   <si>
     <t>读取0节点23号3小时内采集成功数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Учкурганское ЭСП</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取0节点23号日结3小时采集成功数量1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -12320,11 +12312,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
@@ -12503,7 +12495,7 @@
         <v>134</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>140</v>
@@ -12521,44 +12513,9 @@
         <v>200</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="18">
-        <v>4</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="18">
-        <v>200</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="N5" s="18" t="s">
         <v>133</v>
       </c>
     </row>
@@ -12589,7 +12546,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B4">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576">
@@ -12678,19 +12635,19 @@
         <v>129</v>
       </c>
       <c r="B4" s="8">
-        <f>COUNT('Archive Service Test Case'!A2:A454)</f>
-        <v>4</v>
+        <f>COUNT('Archive Service Test Case'!A2:A453)</f>
+        <v>3</v>
       </c>
       <c r="C4" s="8">
-        <f>COUNTIF('Archive Service Test Case'!B2:B122,"*"&amp;"Yes"&amp;"*")</f>
-        <v>4</v>
+        <f>COUNTIF('Archive Service Test Case'!B2:B121,"*"&amp;"Yes"&amp;"*")</f>
+        <v>3</v>
       </c>
       <c r="D4" s="9">
         <f>C4-E4</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="9">
-        <f>COUNTIF('Archive Service Test Case'!O2:O34,FALSE)</f>
+        <f>COUNTIF('Archive Service Test Case'!O2:O33,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F4" s="9">
